--- a/dbase.xlsx
+++ b/dbase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POS\Project\Project\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9193499-AE5C-4AE4-89EC-75E255BF404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF2B37-69C4-4D81-97BC-54DE19E4B02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" xr2:uid="{360FF046-31E6-4BD7-9242-8A0B8B02A8A0}"/>
+    <workbookView xWindow="6950" yWindow="1250" windowWidth="19200" windowHeight="10800" xr2:uid="{360FF046-31E6-4BD7-9242-8A0B8B02A8A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Butter chicken</t>
   </si>
   <si>
     <t>Lamb chop</t>
+  </si>
+  <si>
+    <t>Dish</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Mango Chicken</t>
   </si>
 </sst>
 </file>
@@ -75,8 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,34 +406,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8390D9D0-B059-4FA6-9C4E-39F340BB73D5}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>20</v>
-      </c>
-      <c r="C1">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>50</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
